--- a/contoh data KP.xlsx
+++ b/contoh data KP.xlsx
@@ -127,13 +127,13 @@
     <t>DIKA</t>
   </si>
   <si>
-    <t>suky_suky_yummy</t>
+    <t>caca_hijab</t>
   </si>
   <si>
     <t>Website</t>
   </si>
   <si>
-    <t>+6285261678901</t>
+    <t>+6285345123890</t>
   </si>
   <si>
     <t>Medium / Small Social Seller</t>
@@ -145,9 +145,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -162,14 +162,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +175,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -186,12 +183,102 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Roboto"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,33 +292,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,16 +308,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,75 +325,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,13 +357,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,163 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,11 +566,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,33 +613,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -638,21 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -667,153 +648,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,7 +1160,7 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
